--- a/Chuteira Puma.xlsx
+++ b/Chuteira Puma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\PCdados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INSPER\2 sem\ciencia dos dados\projeto 1\Projeto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DC809E-365F-468D-B693-541D3399696B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D029B90B-9569-45B5-9137-D217A6E7E612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="19350" windowHeight="11490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1791,7 +1791,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2113,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D302"/>
   <sheetViews>
-    <sheetView topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="D299" sqref="D299"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2308,7 +2308,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4543,7 +4543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+    <sheetView topLeftCell="A197" workbookViewId="0">
       <selection activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>

--- a/Chuteira Puma.xlsx
+++ b/Chuteira Puma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INSPER\2 sem\ciencia dos dados\projeto 1\Projeto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D029B90B-9569-45B5-9137-D217A6E7E612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F415F1AE-C2ED-4975-ACE1-4D6D97513503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,22 @@
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="540">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1701,6 +1711,9 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            </t>
+  </si>
+  <si>
+    <t>Relevância</t>
   </si>
 </sst>
 </file>
@@ -2114,7 +2127,7 @@
   <dimension ref="A1:D302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2125,6 +2138,9 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4543,8 +4559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B238"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="B238" sqref="B238"/>
+    <sheetView topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4556,6 +4572,9 @@
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
+      <c r="B1" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
